--- a/SCH-STH/Impact assessments/Benin/bj_sch_sth_impact_2_child_202204.xlsx
+++ b/SCH-STH/Impact assessments/Benin/bj_sch_sth_impact_2_child_202204.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jboulinzann\Documents\Mes dev\WHO\FORMS\BENIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1813FF6B-3546-4C26-8499-5A21B66EE6E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CB5E2F-48AB-4458-B142-DBDE8105BF3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2042,10 +2042,10 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18:XFD18"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3021,7 +3021,7 @@
   <dimension ref="A1:H428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
